--- a/medicine/Mort/Cimetière_municipal_de_Saint-Ouen/Cimetière_municipal_de_Saint-Ouen.xlsx
+++ b/medicine/Mort/Cimetière_municipal_de_Saint-Ouen/Cimetière_municipal_de_Saint-Ouen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_municipal_de_Saint-Ouen</t>
+          <t>Cimetière_municipal_de_Saint-Ouen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière municipal de Saint-Ouen est un cimetière situé boulevard Jean-Jaurès à Saint-Ouen-sur-Seine en Seine-Saint-Denis[1].
-Situé près de la mairie de Saint-Ouen, il ne doit surtout pas être confondu avec le grand cimetière parisien de Saint-Ouen, divisé en deux parties, qui se trouve au sud de la commune[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière municipal de Saint-Ouen est un cimetière situé boulevard Jean-Jaurès à Saint-Ouen-sur-Seine en Seine-Saint-Denis.
+Situé près de la mairie de Saint-Ouen, il ne doit surtout pas être confondu avec le grand cimetière parisien de Saint-Ouen, divisé en deux parties, qui se trouve au sud de la commune.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_municipal_de_Saint-Ouen</t>
+          <t>Cimetière_municipal_de_Saint-Ouen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Accès et situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est bordé par la rue Émile-Cordon au Sud et la rue du Landy au Nord.
-Plusieurs maires de Saint-Ouen sont inhumés dans le cimetière communal parmi lesquels Fernand Lefort, Louis-Auguste Dieumegard, Eugène Palouzie, Alexandre Bachelet, Jean Pernin et Émile Cordon[2].
+Plusieurs maires de Saint-Ouen sont inhumés dans le cimetière communal parmi lesquels Fernand Lefort, Louis-Auguste Dieumegard, Eugène Palouzie, Alexandre Bachelet, Jean Pernin et Émile Cordon.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_municipal_de_Saint-Ouen</t>
+          <t>Cimetière_municipal_de_Saint-Ouen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite du décret impérial sur les sépultures de 1804, les cimetières doivent être installés en dehors des villes. Dès 1806, le maire de Saint-Ouen souhaite mettre ce décret en application en déplaçant le cimetière paroissial de l'église Saint-Ouen-le-Vieux. Cette décision est toutefois rejettée dans un premier temps,pour être finalement accepté le 31 décembre 1808, et acquiert à cet effet un terrain de 8 ares 54 centiares, au lieudit Maison Blanche, où se trouve l'actuelle place de la République[3].
-Une épidémie de choléra en 1832 précipite cette décision[4]. La municipalité acquiert en 1847 un terrain de 3 410 m2 près du boulevard de la Révolte (actuel boulevard Jean-Jaurès)[1], en remplacement de l’ancien cimetière de l'église Saint-Ouen-le-Vieux qui fermera en 1849.
-Le premier enterrement y aura lieu le 18 septembre 1850. Plusieurs agrandissements ont lieu entre 1868 et 1959[1].
-Le carré militaire regroupe plus de 300 sépultures des militaires morts pour la France[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du décret impérial sur les sépultures de 1804, les cimetières doivent être installés en dehors des villes. Dès 1806, le maire de Saint-Ouen souhaite mettre ce décret en application en déplaçant le cimetière paroissial de l'église Saint-Ouen-le-Vieux. Cette décision est toutefois rejettée dans un premier temps,pour être finalement accepté le 31 décembre 1808, et acquiert à cet effet un terrain de 8 ares 54 centiares, au lieudit Maison Blanche, où se trouve l'actuelle place de la République.
+Une épidémie de choléra en 1832 précipite cette décision. La municipalité acquiert en 1847 un terrain de 3 410 m2 près du boulevard de la Révolte (actuel boulevard Jean-Jaurès), en remplacement de l’ancien cimetière de l'église Saint-Ouen-le-Vieux qui fermera en 1849.
+Le premier enterrement y aura lieu le 18 septembre 1850. Plusieurs agrandissements ont lieu entre 1868 et 1959.
+Le carré militaire regroupe plus de 300 sépultures des militaires morts pour la France.
 Le cimetière comporte un columbarium, un jardin du souvenir et un carré musulman.
 </t>
         </is>
